--- a/Data key.xlsx
+++ b/Data key.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25427"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uniwa-my.sharepoint.com/personal/00104621_uwa_edu_au/Documents/Wideband ML/CMG_Edits-02-August-2022/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\AndyJ\12-Ears\P1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6B1CB6D5-0D27-49B5-84C2-35CC36CA37E2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3FC07DD7-1A4B-42A3-9358-C2389FD867AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{C354658B-3E36-40DB-BC69-83EBDF83A9F3}"/>
+    <workbookView xWindow="-4845" yWindow="-21720" windowWidth="38640" windowHeight="21120" xr2:uid="{C354658B-3E36-40DB-BC69-83EBDF83A9F3}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="87">
   <si>
     <t>Variable</t>
   </si>
@@ -173,9 +173,6 @@
     <t>B Blocked ear (abormal)</t>
   </si>
   <si>
-    <t>C1 or C2 Eustachian tube dysfunction (Abnormal)</t>
-  </si>
-  <si>
     <t>TympPoF</t>
   </si>
   <si>
@@ -273,6 +270,30 @@
   </si>
   <si>
     <t>WBA Frequency 226Hz</t>
+  </si>
+  <si>
+    <t>KEEP?</t>
+  </si>
+  <si>
+    <t>NO</t>
+  </si>
+  <si>
+    <t>YES</t>
+  </si>
+  <si>
+    <t>REASON?</t>
+  </si>
+  <si>
+    <t>CONSTANT VALUE</t>
+  </si>
+  <si>
+    <t>IRRELEVANT</t>
+  </si>
+  <si>
+    <t>INSUFFICIENT</t>
+  </si>
+  <si>
+    <t>DUPLICATE</t>
   </si>
 </sst>
 </file>
@@ -341,7 +362,22 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="2">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -653,90 +689,140 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E722E970-E1BA-4811-B503-292AD1C7C35C}">
   <dimension ref="A1:F73"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="G40" sqref="G40"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H40" sqref="H40"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.5546875" style="2" customWidth="1"/>
-    <col min="2" max="2" width="16.88671875" style="2" customWidth="1"/>
-    <col min="3" max="6" width="8.88671875" style="2"/>
+    <col min="1" max="1" width="16.5703125" style="2" customWidth="1"/>
+    <col min="2" max="2" width="68.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="8.85546875" style="2"/>
+    <col min="5" max="5" width="17" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.85546875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D1" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>13</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D2" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="E2" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>5</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D3" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="E3"/>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>8</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D4" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="E4" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>4</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D5" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="E5" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>17</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D6" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="E6" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>16</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D7" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="E7"/>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>19</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D8" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="E8"/>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>21</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D9" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="E9" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>31</v>
       </c>
@@ -746,32 +832,56 @@
       <c r="C10" s="2" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D10" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="E10" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>24</v>
       </c>
       <c r="B11" s="2" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D11" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="E11" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>26</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D12" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="E12" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>28</v>
       </c>
       <c r="B13" s="2" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D13" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="E13" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>30</v>
       </c>
@@ -781,59 +891,101 @@
       <c r="C14" s="2" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D14" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="E14" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="E15" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="B15" s="2" t="s">
+      <c r="B16" s="2" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A16" s="3" t="s">
+      <c r="D16" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="E16" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="B16" s="2" t="s">
+      <c r="B17" s="2" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A17" s="3" t="s">
+      <c r="D17" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="E17" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="B17" s="2" t="s">
+      <c r="B18" s="2" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A18" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D18" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="E18" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
         <v>33</v>
       </c>
       <c r="B19" s="2" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D19" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="E19" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
         <v>35</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C20" s="2" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D20" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="E20" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
         <v>37</v>
       </c>
@@ -843,32 +995,50 @@
       <c r="C21" s="2" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D21" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="E21" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
         <v>9</v>
       </c>
       <c r="B22" s="2" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D22" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="E22"/>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
         <v>10</v>
       </c>
       <c r="B23" s="2" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D23" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="E23"/>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
         <v>42</v>
       </c>
       <c r="B24" s="2" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D24" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="E24"/>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
         <v>11</v>
       </c>
@@ -879,12 +1049,13 @@
         <v>45</v>
       </c>
       <c r="D25" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="E25"/>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A26" s="3" t="s">
         <v>46</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A26" s="3" t="s">
-        <v>47</v>
       </c>
       <c r="B26" s="2" t="s">
         <v>38</v>
@@ -892,61 +1063,89 @@
       <c r="C26" s="2" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D26" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="E26"/>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="E27"/>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A28" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="B27" s="2" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A28" s="3" t="s">
+      <c r="B28" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="E28"/>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A29" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="B28" s="2" t="s">
+      <c r="B29" s="2" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A29" s="3" t="s">
+      <c r="D29" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="E29"/>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A30" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="B29" s="2" t="s">
+      <c r="B30" s="2" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A30" s="3" t="s">
+      <c r="D30" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="E30"/>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A31" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="B30" s="2" t="s">
+      <c r="B31" s="2" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A31" s="3" t="s">
+      <c r="D31" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="E31"/>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A32" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="B31" s="2" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A32" s="3" t="s">
-        <v>58</v>
-      </c>
       <c r="B32" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C32" s="2" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="D32" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="E32"/>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B33" s="2" t="s">
         <v>38</v>
@@ -954,72 +1153,102 @@
       <c r="C33" s="2" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="D33" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="E33"/>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C34" s="2" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="D34" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="E34"/>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="B35" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="B35" s="2" t="s">
+      <c r="C35" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="C35" s="2" t="s">
+      <c r="D35" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="E35"/>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A36" s="4" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A36" s="4" t="s">
+      <c r="B36" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="B36" s="2" t="s">
+      <c r="C36" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="C36" s="2" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="D36" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="E36" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" s="3" t="s">
         <v>12</v>
       </c>
       <c r="B37" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="D37" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="E37" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A38" s="3" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A38" s="3" t="s">
+      <c r="B38" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="B38" s="2" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="D38" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="E38"/>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" s="3"/>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="E39"/>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40" s="3"/>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="E40"/>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41" s="3"/>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42" s="3"/>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43" s="3"/>
     </row>
-    <row r="45" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A45" s="5"/>
       <c r="B45" s="6"/>
       <c r="C45" s="6"/>
@@ -1027,7 +1256,7 @@
       <c r="E45" s="6"/>
       <c r="F45" s="6"/>
     </row>
-    <row r="46" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A46" s="5"/>
       <c r="B46" s="6"/>
       <c r="C46" s="6"/>
@@ -1035,7 +1264,7 @@
       <c r="E46" s="6"/>
       <c r="F46" s="6"/>
     </row>
-    <row r="47" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A47" s="5"/>
       <c r="B47" s="6"/>
       <c r="C47" s="6"/>
@@ -1043,7 +1272,7 @@
       <c r="E47" s="6"/>
       <c r="F47" s="6"/>
     </row>
-    <row r="48" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A48" s="5"/>
       <c r="B48" s="6"/>
       <c r="C48" s="6"/>
@@ -1051,7 +1280,7 @@
       <c r="E48" s="6"/>
       <c r="F48" s="6"/>
     </row>
-    <row r="49" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A49" s="5"/>
       <c r="B49" s="6"/>
       <c r="C49" s="6"/>
@@ -1059,7 +1288,7 @@
       <c r="E49" s="6"/>
       <c r="F49" s="6"/>
     </row>
-    <row r="50" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A50" s="8"/>
       <c r="B50" s="6"/>
       <c r="C50" s="6"/>
@@ -1067,7 +1296,7 @@
       <c r="E50" s="6"/>
       <c r="F50" s="6"/>
     </row>
-    <row r="51" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A51" s="5"/>
       <c r="B51" s="6"/>
       <c r="C51" s="6"/>
@@ -1075,7 +1304,7 @@
       <c r="E51" s="6"/>
       <c r="F51" s="6"/>
     </row>
-    <row r="52" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A52" s="5"/>
       <c r="B52" s="6"/>
       <c r="C52" s="6"/>
@@ -1083,7 +1312,7 @@
       <c r="E52" s="6"/>
       <c r="F52" s="6"/>
     </row>
-    <row r="53" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A53" s="5"/>
       <c r="B53" s="6"/>
       <c r="C53" s="6"/>
@@ -1091,7 +1320,7 @@
       <c r="E53" s="6"/>
       <c r="F53" s="6"/>
     </row>
-    <row r="54" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A54" s="5"/>
       <c r="B54" s="6"/>
       <c r="C54" s="6"/>
@@ -1099,7 +1328,7 @@
       <c r="E54" s="6"/>
       <c r="F54" s="6"/>
     </row>
-    <row r="55" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A55" s="9"/>
       <c r="B55" s="6"/>
       <c r="C55" s="6"/>
@@ -1107,7 +1336,7 @@
       <c r="E55" s="6"/>
       <c r="F55" s="6"/>
     </row>
-    <row r="56" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A56" s="5"/>
       <c r="B56" s="6"/>
       <c r="C56" s="6"/>
@@ -1115,7 +1344,7 @@
       <c r="E56" s="6"/>
       <c r="F56" s="6"/>
     </row>
-    <row r="57" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A57" s="5"/>
       <c r="B57" s="6"/>
       <c r="C57" s="6"/>
@@ -1123,7 +1352,7 @@
       <c r="E57" s="6"/>
       <c r="F57" s="6"/>
     </row>
-    <row r="58" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A58" s="5"/>
       <c r="B58" s="6"/>
       <c r="C58" s="6"/>
@@ -1131,7 +1360,7 @@
       <c r="E58" s="6"/>
       <c r="F58" s="6"/>
     </row>
-    <row r="59" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A59" s="9"/>
       <c r="B59" s="6"/>
       <c r="C59" s="6"/>
@@ -1139,7 +1368,7 @@
       <c r="E59" s="6"/>
       <c r="F59" s="6"/>
     </row>
-    <row r="60" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A60" s="6"/>
       <c r="B60" s="6"/>
       <c r="C60" s="6"/>
@@ -1147,7 +1376,7 @@
       <c r="E60" s="6"/>
       <c r="F60" s="6"/>
     </row>
-    <row r="61" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A61" s="9"/>
       <c r="B61" s="6"/>
       <c r="C61" s="6"/>
@@ -1155,7 +1384,7 @@
       <c r="E61" s="6"/>
       <c r="F61" s="6"/>
     </row>
-    <row r="62" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A62" s="9"/>
       <c r="B62" s="6"/>
       <c r="C62" s="6"/>
@@ -1163,7 +1392,7 @@
       <c r="E62" s="6"/>
       <c r="F62" s="6"/>
     </row>
-    <row r="63" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A63" s="9"/>
       <c r="B63" s="6"/>
       <c r="C63" s="6"/>
@@ -1171,7 +1400,7 @@
       <c r="E63" s="6"/>
       <c r="F63" s="6"/>
     </row>
-    <row r="64" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A64" s="9"/>
       <c r="B64" s="6"/>
       <c r="C64" s="6"/>
@@ -1179,7 +1408,7 @@
       <c r="E64" s="6"/>
       <c r="F64" s="6"/>
     </row>
-    <row r="65" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A65" s="9"/>
       <c r="B65" s="6"/>
       <c r="C65" s="6"/>
@@ -1187,7 +1416,7 @@
       <c r="E65" s="6"/>
       <c r="F65" s="6"/>
     </row>
-    <row r="66" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A66" s="9"/>
       <c r="B66" s="6"/>
       <c r="C66" s="6"/>
@@ -1195,7 +1424,7 @@
       <c r="E66" s="6"/>
       <c r="F66" s="6"/>
     </row>
-    <row r="67" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A67" s="9"/>
       <c r="B67" s="6"/>
       <c r="C67" s="6"/>
@@ -1203,7 +1432,7 @@
       <c r="E67" s="6"/>
       <c r="F67" s="6"/>
     </row>
-    <row r="68" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A68" s="9"/>
       <c r="B68" s="6"/>
       <c r="C68" s="6"/>
@@ -1211,7 +1440,7 @@
       <c r="E68" s="6"/>
       <c r="F68" s="6"/>
     </row>
-    <row r="69" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A69" s="9"/>
       <c r="B69" s="6"/>
       <c r="C69" s="6"/>
@@ -1219,7 +1448,7 @@
       <c r="E69" s="6"/>
       <c r="F69" s="6"/>
     </row>
-    <row r="70" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A70" s="9"/>
       <c r="B70" s="6"/>
       <c r="C70" s="6"/>
@@ -1227,7 +1456,7 @@
       <c r="E70" s="6"/>
       <c r="F70" s="6"/>
     </row>
-    <row r="71" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A71" s="9"/>
       <c r="B71" s="6"/>
       <c r="C71" s="6"/>
@@ -1235,7 +1464,7 @@
       <c r="E71" s="6"/>
       <c r="F71" s="6"/>
     </row>
-    <row r="72" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A72" s="9"/>
       <c r="B72" s="6"/>
       <c r="C72" s="6"/>
@@ -1243,7 +1472,7 @@
       <c r="E72" s="6"/>
       <c r="F72" s="6"/>
     </row>
-    <row r="73" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A73" s="6"/>
       <c r="B73" s="6"/>
       <c r="C73" s="6"/>
@@ -1252,12 +1481,32 @@
       <c r="F73" s="6"/>
     </row>
   </sheetData>
+  <conditionalFormatting sqref="A2:D38">
+    <cfRule type="expression" dxfId="1" priority="1">
+      <formula>$D2="NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101002F2043BBFC9E1D4080C372F95D3F22D0" ma:contentTypeVersion="13" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="7dd378bb46bbef6adc1a9fea39361552">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="bbcfb278-b244-4733-bb6e-48c7310a0cb1" xmlns:ns4="80e07672-6ce4-4862-b344-89239dcba360" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="d34139b5707e53dba161e5bd6fea2cdc" ns3:_="" ns4:_="">
     <xsd:import namespace="bbcfb278-b244-4733-bb6e-48c7310a0cb1"/>
@@ -1480,22 +1729,24 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{661A26FD-358C-4EAD-8158-18CA34C222F0}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DE6B785F-CBBE-4224-B5FF-A8684BABA14F}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EB3E5394-8073-43DF-88D6-1ACED9130E5C}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1512,21 +1763,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DE6B785F-CBBE-4224-B5FF-A8684BABA14F}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{661A26FD-358C-4EAD-8158-18CA34C222F0}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>